--- a/CP038/Default.xlsx
+++ b/CP038/Default.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t/>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Reconexion APC</t>
+  </si>
+  <si>
+    <t>20147720492</t>
   </si>
   <si>
     <t>e_NumPorta</t>
@@ -355,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -375,10 +378,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -680,7 +686,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -728,12 +734,12 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.30859375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
@@ -744,7 +750,7 @@
     <col min="9" max="9" width="15.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="9" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -794,7 +800,7 @@
         <v>38</v>
       </c>
       <c s="1">
-        <v>958064071</v>
+        <v>600000178</v>
       </c>
       <c s="1" t="s">
         <v>15</v>
@@ -820,7 +826,7 @@
       <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="8" t="s">
+      <c s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -839,7 +845,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -918,8 +924,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2" customWidth="1"/>
@@ -943,8 +949,8 @@
       <c s="1" t="s">
         <v>22</v>
       </c>
-      <c s="1">
-        <v>20547765860</v>
+      <c s="8" t="s">
+        <v>49</v>
       </c>
       <c s="1"/>
       <c s="4"/>
@@ -997,7 +1003,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1014,7 +1020,7 @@
         <v>35</v>
       </c>
       <c t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s">
         <v>25</v>
